--- a/data/trans_camb/IP21B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP21B-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,26</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,48</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,28</t>
+          <t>-27,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-25,73</t>
+          <t>-11,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,86</t>
+          <t>13,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>12,61</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,61</t>
+          <t>-9,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,4</t>
+          <t>-32,06; 43,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 52,69</t>
+          <t>-29,58; 63,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,6</t>
+          <t>-55,45; -8,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-76,63; 0,0</t>
+          <t>-57,93; 34,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-73,96; 25,45</t>
+          <t>-54,49; 73,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-73,96; 49,4</t>
+          <t>-54,22; 49,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 23,29</t>
+          <t>-27,47; 28,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 32,68</t>
+          <t>-25,08; 51,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 65,68</t>
+          <t>-37,71; 27,33</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-30,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-49,97%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,05%</t>
+          <t>-13,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>119,81%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>333,76%</t>
+          <t>-30,47%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,16; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 568,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,32; 183,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,47; 319,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 215,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>15,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,54</t>
+          <t>23,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-27,37</t>
+          <t>45,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,99</t>
+          <t>-25,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,18</t>
+          <t>-12,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,61</t>
+          <t>10,63</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>29,61</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 43,5</t>
+          <t>0,0; 44,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,58; 63,23</t>
+          <t>7,12; 52,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-55,45; -8,68</t>
+          <t>0,0; 88,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-57,93; 34,13</t>
+          <t>-76,63; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 73,43</t>
+          <t>-73,96; 25,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 49,09</t>
+          <t>-73,96; 49,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 28,1</t>
+          <t>-23,69; 23,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 51,93</t>
+          <t>-16,25; 32,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 27,33</t>
+          <t>-4,12; 65,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-30,02%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>-49,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,79%</t>
+          <t>-7,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>119,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-30,47%</t>
+          <t>333,76%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,16; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 568,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-58,32; 183,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,47; 319,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 215,15</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP21B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP21B-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,27 +632,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,17 +662,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>-2,11</t>
         </is>
       </c>
     </row>
@@ -685,27 +685,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 15,3</t>
+          <t>-21,48; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 30,96</t>
+          <t>-21,68; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 52,15</t>
+          <t>-22,38; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 29,96</t>
+          <t>0,0; 30,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 42,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 16,52</t>
+          <t>-2,16; 16,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 30,93</t>
+          <t>-10,44; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 39,67</t>
+          <t>-9,36; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,17 +738,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,84%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,02%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>107,81%</t>
+          <t>161,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>224,59%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>109,24%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,68; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,23; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,54</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-27,37</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,99</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,18</t>
+          <t>13,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,61</t>
+          <t>14,41</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>-0,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 43,5</t>
+          <t>-23,33; 40,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-29,58; 63,23</t>
+          <t>-34,79; 67,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-55,45; -8,68</t>
+          <t>-43,78; 40,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-57,93; 34,13</t>
+          <t>-56,9; 30,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 73,43</t>
+          <t>-36,67; 56,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 49,09</t>
+          <t>-49,44; 59,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 28,1</t>
+          <t>-23,57; 25,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 51,93</t>
+          <t>-14,76; 48,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 27,33</t>
+          <t>-32,2; 33,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-33,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-30,02%</t>
+          <t>-17,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,79%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>47,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-30,47%</t>
+          <t>-1,13%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,16; —</t>
+          <t>-59,0; 324,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 568,57</t>
+          <t>-66,32; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,32; 183,13</t>
+          <t>-52,88; 185,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,47; 319,17</t>
+          <t>-39,33; 299,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 215,15</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,26</t>
+          <t>-13,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,48</t>
+          <t>27,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45,28</t>
+          <t>18,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-25,73</t>
+          <t>-60,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-12,86</t>
+          <t>-23,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-29,92</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-27,25</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,61</t>
+          <t>4,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,4</t>
+          <t>-57,5; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 52,69</t>
+          <t>-26,23; 71,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,6</t>
+          <t>-27,51; 86,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-76,63; 0,0</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-73,96; 25,45</t>
+          <t>-81,88; 54,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-73,96; 49,4</t>
+          <t>-100,0; 65,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 23,29</t>
+          <t>-58,54; -7,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 32,68</t>
+          <t>-31,58; 47,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 65,68</t>
+          <t>-37,87; 52,97</t>
         </is>
       </c>
     </row>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>206,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>137,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1190,27 +1190,27 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-49,97%</t>
+          <t>-38,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,05%</t>
+          <t>-49,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>119,81%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>333,76%</t>
+          <t>14,96%</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1258,19 +1258,19 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,84; 615,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 756,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>22,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>14,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,64</t>
+          <t>45,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>33,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 21,64</t>
+          <t>0,0; 61,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 29,06</t>
+          <t>0,0; 53,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 43,45</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 20,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 30,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 47,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 16,49</t>
+          <t>0,0; 55,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 23,43</t>
+          <t>0,0; 36,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 32,91</t>
+          <t>0,0; 77,16</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>46,89%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>72,98%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>111,11%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>59,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>131,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>157,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>128,66%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1439,27 +1439,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,6; 462,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,28; 449,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 843,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-65,48; 625,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 906,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,28 +1469,252 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,11; 260,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 356,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 487,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5,75</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8,96</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>13,64</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>12,79</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>15,32</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,71</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10,71</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>14,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 19,9</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-6,92; 26,82</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; 39,91</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-8,86; 20,67</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 32,97</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 45,77</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 16,07</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 23,78</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 31,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>46,89%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>72,98%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>111,11%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>59,82%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>131,59%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>157,69%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>51,12%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>95,94%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>128,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-48,66; 341,74</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-55,55; 462,67</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-58,76; 646,64</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-67,13; 603,8</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-44,25; 1076,51</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 1703,62</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-26,38; 246,01</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; 317,49</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-15,61; 456,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP21B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP21B-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,22 +685,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 0,0</t>
+          <t>-26,27; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 0,0</t>
+          <t>-26,24; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 0,0</t>
+          <t>-26,1; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,15</t>
+          <t>0,0; 29,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 16,64</t>
+          <t>-2,8; 15,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 0,0</t>
+          <t>-12,65; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 0,0</t>
+          <t>-11,02; 0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 40,94</t>
+          <t>-26,76; 39,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 67,3</t>
+          <t>-36,74; 64,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-43,78; 40,79</t>
+          <t>-43,69; 42,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-56,9; 30,38</t>
+          <t>-50,2; 33,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 56,85</t>
+          <t>-40,8; 55,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,44; 59,28</t>
+          <t>-47,03; 66,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 25,9</t>
+          <t>-25,1; 24,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 48,16</t>
+          <t>-18,46; 45,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-32,2; 33,49</t>
+          <t>-30,45; 35,11</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,0; 324,63</t>
+          <t>-59,26; 483,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 490,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,32; —</t>
+          <t>-69,35; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,88; 185,12</t>
+          <t>-57,36; 173,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 299,3</t>
+          <t>-43,84; 309,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,33; 250,62</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-57,5; 0,0</t>
+          <t>-57,4; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 71,75</t>
+          <t>-14,47; 72,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 86,8</t>
+          <t>-27,73; 86,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,27 +1137,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-81,88; 54,89</t>
+          <t>-81,54; 55,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 65,33</t>
+          <t>-100,0; 59,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-58,54; -7,7</t>
+          <t>-58,28; -7,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 47,03</t>
+          <t>-31,36; 47,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 52,97</t>
+          <t>-39,81; 54,54</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-66,84; 615,19</t>
+          <t>-69,68; 554,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 756,94</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,01</t>
+          <t>0,0; 62,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,42</t>
+          <t>0,0; 60,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,4</t>
+          <t>0,0; 48,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,51</t>
+          <t>0,0; 44,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 19,9</t>
+          <t>-8,87; 20,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 26,82</t>
+          <t>-7,63; 28,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 39,91</t>
+          <t>-7,58; 38,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 20,67</t>
+          <t>-7,19; 21,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 32,97</t>
+          <t>-3,29; 32,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 45,77</t>
+          <t>-7,45; 44,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 16,07</t>
+          <t>-3,64; 16,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 23,78</t>
+          <t>-0,92; 24,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 31,67</t>
+          <t>-1,95; 32,92</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,66; 341,74</t>
+          <t>-52,35; 374,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 462,67</t>
+          <t>-56,37; 479,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,76; 646,64</t>
+          <t>-61,59; 587,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-67,13; 603,8</t>
+          <t>-60,45; 626,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 1076,51</t>
+          <t>-32,86; 1019,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1703,62</t>
+          <t>-100,0; 1376,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 246,01</t>
+          <t>-26,07; 259,32</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 317,49</t>
+          <t>-13,37; 372,86</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 456,96</t>
+          <t>-21,36; 497,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP21B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP21B-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,59</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-4,39</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-4,39</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-4,39</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,59</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 0,0</t>
+          <t>0,0; 29,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,0</t>
+          <t>-24,09; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,85; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,84; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 15,0</t>
+          <t>-3,35; 15,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 0,0</t>
+          <t>-10,49; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 0,0</t>
+          <t>-8,9; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-5,85</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13,66</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,47</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>7,73</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>11,21</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,63</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,85</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>13,66</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>-9,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 39,26</t>
+          <t>-61,91; 29,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 64,01</t>
+          <t>-39,51; 55,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-43,69; 42,31</t>
+          <t>-47,19; 62,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 33,23</t>
+          <t>-28,94; 36,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,8; 55,12</t>
+          <t>-33,19; 65,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,03; 66,81</t>
+          <t>-43,19; 40,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 24,88</t>
+          <t>-25,72; 27,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 45,41</t>
+          <t>-15,64; 48,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 35,11</t>
+          <t>-33,21; 36,69</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-17,74%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>41,42%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10,51%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>26,62%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>38,59%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-33,15%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-17,74%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>41,42%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>-33,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-2,82%</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,26; 483,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 490,23</t>
+          <t>-69,69; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,25; 345,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,35; —</t>
+          <t>-100,0; 471,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-57,36; 173,7</t>
+          <t>-56,51; 230,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 309,09</t>
+          <t>-47,3; 306,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-79,33; 250,62</t>
+          <t>-78,45; 275,95</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-60,26</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-23,45</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-31,62</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-13,51</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>27,93</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>18,62</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-60,26</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-23,45</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-29,92</t>
+          <t>19,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>4,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-57,4; 0,0</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 72,76</t>
+          <t>-81,63; 56,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 86,34</t>
+          <t>-100,0; 61,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-56,01; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-81,54; 55,89</t>
+          <t>-14,38; 72,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 59,7</t>
+          <t>-27,62; 86,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-58,28; -7,56</t>
+          <t>-58,13; -7,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 47,92</t>
+          <t>-27,36; 46,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 54,54</t>
+          <t>-35,15; 55,82</t>
         </is>
       </c>
     </row>
@@ -1175,34 +1175,34 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>-38,92%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-52,47%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>206,8%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>137,89%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>146,75%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-38,92%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-49,65%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
           <t>44,69%</t>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>15,0%</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,68; 554,84</t>
+          <t>-66,7; 623,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>22,58</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>14,04</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>45,6</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>43,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>33,83</t>
+          <t>32,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 59,52</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 55,18</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>0,0; 100,0</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,64</t>
+          <t>0,0; 48,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,19</t>
+          <t>0,0; 44,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,16</t>
+          <t>0,0; 76,12</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12,79</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14,62</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>5,75</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>8,96</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>13,64</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>5,81</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>12,79</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,32</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>13,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 20,21</t>
+          <t>-7,84; 20,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 28,51</t>
+          <t>-2,99; 30,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 38,33</t>
+          <t>-4,57; 47,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 21,41</t>
+          <t>-7,8; 21,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 32,01</t>
+          <t>-8,19; 29,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 44,27</t>
+          <t>-6,97; 44,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 16,28</t>
+          <t>-4,16; 16,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 24,86</t>
+          <t>-1,7; 23,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 32,92</t>
+          <t>-0,86; 32,18</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>59,82%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>131,59%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>150,45%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>46,89%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>72,98%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>111,11%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>59,82%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>131,59%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>157,69%</t>
+          <t>109,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>128,66%</t>
+          <t>124,94%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-52,35; 374,37</t>
+          <t>-65,48; 625,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-56,37; 479,62</t>
+          <t>-36,55; 906,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,59; 587,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-60,45; 626,86</t>
+          <t>-45,6; 462,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 1019,23</t>
+          <t>-50,28; 449,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1376,09</t>
+          <t>-50,02; 824,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 259,32</t>
+          <t>-29,11; 260,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 372,86</t>
+          <t>-17,47; 356,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 497,05</t>
+          <t>-12,32; 477,27</t>
         </is>
       </c>
     </row>
